--- a/ApplicationTestData/PriceRuleSceanrios.xlsx
+++ b/ApplicationTestData/PriceRuleSceanrios.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="38">
   <si>
     <t>SiNo</t>
   </si>
@@ -130,6 +130,9 @@
   </si>
   <si>
     <t>Status</t>
+  </si>
+  <si>
+    <t>Urls</t>
   </si>
 </sst>
 </file>
@@ -176,7 +179,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="233">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -185,6 +188,234 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -480,7 +711,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:HW16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
@@ -488,13 +719,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" customWidth="1"/>
-    <col min="2" max="2" width="57.7109375" customWidth="1"/>
-    <col min="3" max="3" width="54.7109375" customWidth="1"/>
-    <col min="5" max="6" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="57.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="54.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="23.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:231">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -504,8 +735,692 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="60">
+      <c r="D1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="O1" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="P1" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q1" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="R1" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="S1" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="U1" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="V1" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="W1" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="X1" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y1" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z1" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA1" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB1" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC1" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD1" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE1" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF1" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG1" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH1" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI1" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ1" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK1" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL1" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO1" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="AP1" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="AQ1" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="AR1" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="AS1" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="AT1" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="AU1" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="AV1" s="49" t="s">
+        <v>37</v>
+      </c>
+      <c r="AW1" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="AX1" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="AY1" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="AZ1" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="BA1" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="BB1" s="55" t="s">
+        <v>37</v>
+      </c>
+      <c r="BC1" s="56" t="s">
+        <v>37</v>
+      </c>
+      <c r="BD1" s="57" t="s">
+        <v>37</v>
+      </c>
+      <c r="BE1" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="BF1" s="59" t="s">
+        <v>37</v>
+      </c>
+      <c r="BG1" s="60" t="s">
+        <v>37</v>
+      </c>
+      <c r="BH1" s="61" t="s">
+        <v>37</v>
+      </c>
+      <c r="BI1" s="62" t="s">
+        <v>37</v>
+      </c>
+      <c r="BJ1" s="63" t="s">
+        <v>37</v>
+      </c>
+      <c r="BK1" s="64" t="s">
+        <v>37</v>
+      </c>
+      <c r="BL1" s="65" t="s">
+        <v>37</v>
+      </c>
+      <c r="BM1" s="66" t="s">
+        <v>37</v>
+      </c>
+      <c r="BN1" s="67" t="s">
+        <v>37</v>
+      </c>
+      <c r="BO1" s="68" t="s">
+        <v>37</v>
+      </c>
+      <c r="BP1" s="69" t="s">
+        <v>37</v>
+      </c>
+      <c r="BQ1" s="70" t="s">
+        <v>37</v>
+      </c>
+      <c r="BR1" s="71" t="s">
+        <v>37</v>
+      </c>
+      <c r="BS1" s="72" t="s">
+        <v>37</v>
+      </c>
+      <c r="BT1" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="BU1" s="74" t="s">
+        <v>37</v>
+      </c>
+      <c r="BV1" s="75" t="s">
+        <v>37</v>
+      </c>
+      <c r="BW1" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="BX1" s="77" t="s">
+        <v>37</v>
+      </c>
+      <c r="BY1" s="78" t="s">
+        <v>37</v>
+      </c>
+      <c r="BZ1" s="79" t="s">
+        <v>37</v>
+      </c>
+      <c r="CA1" s="80" t="s">
+        <v>37</v>
+      </c>
+      <c r="CB1" s="81" t="s">
+        <v>37</v>
+      </c>
+      <c r="CC1" s="82" t="s">
+        <v>37</v>
+      </c>
+      <c r="CD1" s="83" t="s">
+        <v>37</v>
+      </c>
+      <c r="CE1" s="84" t="s">
+        <v>37</v>
+      </c>
+      <c r="CF1" s="85" t="s">
+        <v>37</v>
+      </c>
+      <c r="CG1" s="86" t="s">
+        <v>37</v>
+      </c>
+      <c r="CH1" s="87" t="s">
+        <v>37</v>
+      </c>
+      <c r="CI1" s="88" t="s">
+        <v>37</v>
+      </c>
+      <c r="CJ1" s="89" t="s">
+        <v>37</v>
+      </c>
+      <c r="CK1" s="90" t="s">
+        <v>37</v>
+      </c>
+      <c r="CL1" s="91" t="s">
+        <v>37</v>
+      </c>
+      <c r="CM1" s="92" t="s">
+        <v>37</v>
+      </c>
+      <c r="CN1" s="93" t="s">
+        <v>37</v>
+      </c>
+      <c r="CO1" s="94" t="s">
+        <v>37</v>
+      </c>
+      <c r="CP1" s="95" t="s">
+        <v>37</v>
+      </c>
+      <c r="CQ1" s="96" t="s">
+        <v>37</v>
+      </c>
+      <c r="CR1" s="97" t="s">
+        <v>37</v>
+      </c>
+      <c r="CS1" s="98" t="s">
+        <v>37</v>
+      </c>
+      <c r="CT1" s="99" t="s">
+        <v>37</v>
+      </c>
+      <c r="CU1" s="100" t="s">
+        <v>37</v>
+      </c>
+      <c r="CV1" s="101" t="s">
+        <v>37</v>
+      </c>
+      <c r="CW1" s="102" t="s">
+        <v>37</v>
+      </c>
+      <c r="CX1" s="103" t="s">
+        <v>37</v>
+      </c>
+      <c r="CY1" s="104" t="s">
+        <v>37</v>
+      </c>
+      <c r="CZ1" s="105" t="s">
+        <v>37</v>
+      </c>
+      <c r="DA1" s="106" t="s">
+        <v>37</v>
+      </c>
+      <c r="DB1" s="107" t="s">
+        <v>37</v>
+      </c>
+      <c r="DC1" s="108" t="s">
+        <v>37</v>
+      </c>
+      <c r="DD1" s="109" t="s">
+        <v>37</v>
+      </c>
+      <c r="DE1" s="110" t="s">
+        <v>37</v>
+      </c>
+      <c r="DF1" s="111" t="s">
+        <v>37</v>
+      </c>
+      <c r="DG1" s="112" t="s">
+        <v>37</v>
+      </c>
+      <c r="DH1" s="113" t="s">
+        <v>37</v>
+      </c>
+      <c r="DI1" s="114" t="s">
+        <v>37</v>
+      </c>
+      <c r="DJ1" s="115" t="s">
+        <v>37</v>
+      </c>
+      <c r="DK1" s="116" t="s">
+        <v>37</v>
+      </c>
+      <c r="DL1" s="117" t="s">
+        <v>37</v>
+      </c>
+      <c r="DM1" s="118" t="s">
+        <v>37</v>
+      </c>
+      <c r="DN1" s="119" t="s">
+        <v>37</v>
+      </c>
+      <c r="DO1" s="120" t="s">
+        <v>37</v>
+      </c>
+      <c r="DP1" s="121" t="s">
+        <v>37</v>
+      </c>
+      <c r="DQ1" s="122" t="s">
+        <v>37</v>
+      </c>
+      <c r="DR1" s="123" t="s">
+        <v>37</v>
+      </c>
+      <c r="DS1" s="124" t="s">
+        <v>37</v>
+      </c>
+      <c r="DT1" s="125" t="s">
+        <v>37</v>
+      </c>
+      <c r="DU1" s="126" t="s">
+        <v>37</v>
+      </c>
+      <c r="DV1" s="127" t="s">
+        <v>37</v>
+      </c>
+      <c r="DW1" s="128" t="s">
+        <v>37</v>
+      </c>
+      <c r="DX1" s="129" t="s">
+        <v>37</v>
+      </c>
+      <c r="DY1" s="130" t="s">
+        <v>37</v>
+      </c>
+      <c r="DZ1" s="131" t="s">
+        <v>37</v>
+      </c>
+      <c r="EA1" s="132" t="s">
+        <v>37</v>
+      </c>
+      <c r="EB1" s="133" t="s">
+        <v>37</v>
+      </c>
+      <c r="EC1" s="134" t="s">
+        <v>37</v>
+      </c>
+      <c r="ED1" s="135" t="s">
+        <v>37</v>
+      </c>
+      <c r="EE1" s="136" t="s">
+        <v>37</v>
+      </c>
+      <c r="EF1" s="137" t="s">
+        <v>37</v>
+      </c>
+      <c r="EG1" s="138" t="s">
+        <v>37</v>
+      </c>
+      <c r="EH1" s="139" t="s">
+        <v>37</v>
+      </c>
+      <c r="EI1" s="140" t="s">
+        <v>37</v>
+      </c>
+      <c r="EJ1" s="141" t="s">
+        <v>37</v>
+      </c>
+      <c r="EK1" s="142" t="s">
+        <v>37</v>
+      </c>
+      <c r="EL1" s="143" t="s">
+        <v>37</v>
+      </c>
+      <c r="EM1" s="144" t="s">
+        <v>37</v>
+      </c>
+      <c r="EN1" s="145" t="s">
+        <v>37</v>
+      </c>
+      <c r="EO1" s="146" t="s">
+        <v>37</v>
+      </c>
+      <c r="EP1" s="147" t="s">
+        <v>37</v>
+      </c>
+      <c r="EQ1" s="148" t="s">
+        <v>37</v>
+      </c>
+      <c r="ER1" s="149" t="s">
+        <v>37</v>
+      </c>
+      <c r="ES1" s="150" t="s">
+        <v>37</v>
+      </c>
+      <c r="ET1" s="151" t="s">
+        <v>37</v>
+      </c>
+      <c r="EU1" s="152" t="s">
+        <v>37</v>
+      </c>
+      <c r="EV1" s="153" t="s">
+        <v>37</v>
+      </c>
+      <c r="EW1" s="154" t="s">
+        <v>37</v>
+      </c>
+      <c r="EX1" s="155" t="s">
+        <v>37</v>
+      </c>
+      <c r="EY1" s="156" t="s">
+        <v>37</v>
+      </c>
+      <c r="EZ1" s="157" t="s">
+        <v>37</v>
+      </c>
+      <c r="FA1" s="158" t="s">
+        <v>37</v>
+      </c>
+      <c r="FB1" s="159" t="s">
+        <v>37</v>
+      </c>
+      <c r="FC1" s="160" t="s">
+        <v>37</v>
+      </c>
+      <c r="FD1" s="161" t="s">
+        <v>37</v>
+      </c>
+      <c r="FE1" s="162" t="s">
+        <v>37</v>
+      </c>
+      <c r="FF1" s="163" t="s">
+        <v>37</v>
+      </c>
+      <c r="FG1" s="164" t="s">
+        <v>37</v>
+      </c>
+      <c r="FH1" s="165" t="s">
+        <v>37</v>
+      </c>
+      <c r="FI1" s="166" t="s">
+        <v>37</v>
+      </c>
+      <c r="FJ1" s="167" t="s">
+        <v>37</v>
+      </c>
+      <c r="FK1" s="168" t="s">
+        <v>37</v>
+      </c>
+      <c r="FL1" s="169" t="s">
+        <v>37</v>
+      </c>
+      <c r="FM1" s="170" t="s">
+        <v>37</v>
+      </c>
+      <c r="FN1" s="171" t="s">
+        <v>37</v>
+      </c>
+      <c r="FO1" s="172" t="s">
+        <v>37</v>
+      </c>
+      <c r="FP1" s="173" t="s">
+        <v>37</v>
+      </c>
+      <c r="FQ1" s="174" t="s">
+        <v>37</v>
+      </c>
+      <c r="FR1" s="175" t="s">
+        <v>37</v>
+      </c>
+      <c r="FS1" s="176" t="s">
+        <v>37</v>
+      </c>
+      <c r="FT1" s="177" t="s">
+        <v>37</v>
+      </c>
+      <c r="FU1" s="178" t="s">
+        <v>37</v>
+      </c>
+      <c r="FV1" s="179" t="s">
+        <v>37</v>
+      </c>
+      <c r="FW1" s="180" t="s">
+        <v>37</v>
+      </c>
+      <c r="FX1" s="181" t="s">
+        <v>37</v>
+      </c>
+      <c r="FY1" s="182" t="s">
+        <v>37</v>
+      </c>
+      <c r="FZ1" s="183" t="s">
+        <v>37</v>
+      </c>
+      <c r="GA1" s="184" t="s">
+        <v>37</v>
+      </c>
+      <c r="GB1" s="185" t="s">
+        <v>37</v>
+      </c>
+      <c r="GC1" s="186" t="s">
+        <v>37</v>
+      </c>
+      <c r="GD1" s="187" t="s">
+        <v>37</v>
+      </c>
+      <c r="GE1" s="188" t="s">
+        <v>37</v>
+      </c>
+      <c r="GF1" s="189" t="s">
+        <v>37</v>
+      </c>
+      <c r="GG1" s="190" t="s">
+        <v>37</v>
+      </c>
+      <c r="GH1" s="191" t="s">
+        <v>37</v>
+      </c>
+      <c r="GI1" s="192" t="s">
+        <v>37</v>
+      </c>
+      <c r="GJ1" s="193" t="s">
+        <v>37</v>
+      </c>
+      <c r="GK1" s="194" t="s">
+        <v>37</v>
+      </c>
+      <c r="GL1" s="195" t="s">
+        <v>37</v>
+      </c>
+      <c r="GM1" s="196" t="s">
+        <v>37</v>
+      </c>
+      <c r="GN1" s="197" t="s">
+        <v>37</v>
+      </c>
+      <c r="GO1" s="198" t="s">
+        <v>37</v>
+      </c>
+      <c r="GP1" s="199" t="s">
+        <v>37</v>
+      </c>
+      <c r="GQ1" s="200" t="s">
+        <v>37</v>
+      </c>
+      <c r="GR1" s="201" t="s">
+        <v>37</v>
+      </c>
+      <c r="GS1" s="202" t="s">
+        <v>37</v>
+      </c>
+      <c r="GT1" s="203" t="s">
+        <v>37</v>
+      </c>
+      <c r="GU1" s="204" t="s">
+        <v>37</v>
+      </c>
+      <c r="GV1" s="205" t="s">
+        <v>37</v>
+      </c>
+      <c r="GW1" s="206" t="s">
+        <v>37</v>
+      </c>
+      <c r="GX1" s="207" t="s">
+        <v>37</v>
+      </c>
+      <c r="GY1" s="208" t="s">
+        <v>37</v>
+      </c>
+      <c r="GZ1" s="209" t="s">
+        <v>37</v>
+      </c>
+      <c r="HA1" s="210" t="s">
+        <v>37</v>
+      </c>
+      <c r="HB1" s="211" t="s">
+        <v>37</v>
+      </c>
+      <c r="HC1" s="212" t="s">
+        <v>37</v>
+      </c>
+      <c r="HD1" s="213" t="s">
+        <v>37</v>
+      </c>
+      <c r="HE1" s="214" t="s">
+        <v>37</v>
+      </c>
+      <c r="HF1" s="215" t="s">
+        <v>37</v>
+      </c>
+      <c r="HG1" s="216" t="s">
+        <v>37</v>
+      </c>
+      <c r="HH1" s="217" t="s">
+        <v>37</v>
+      </c>
+      <c r="HI1" s="218" t="s">
+        <v>37</v>
+      </c>
+      <c r="HJ1" s="219" t="s">
+        <v>37</v>
+      </c>
+      <c r="HK1" s="220" t="s">
+        <v>37</v>
+      </c>
+      <c r="HL1" s="221" t="s">
+        <v>37</v>
+      </c>
+      <c r="HM1" s="222" t="s">
+        <v>37</v>
+      </c>
+      <c r="HN1" s="223" t="s">
+        <v>37</v>
+      </c>
+      <c r="HO1" s="224" t="s">
+        <v>37</v>
+      </c>
+      <c r="HP1" s="225" t="s">
+        <v>37</v>
+      </c>
+      <c r="HQ1" s="226" t="s">
+        <v>37</v>
+      </c>
+      <c r="HR1" s="227" t="s">
+        <v>37</v>
+      </c>
+      <c r="HS1" s="228" t="s">
+        <v>37</v>
+      </c>
+      <c r="HT1" s="229" t="s">
+        <v>37</v>
+      </c>
+      <c r="HU1" s="230" t="s">
+        <v>37</v>
+      </c>
+      <c r="HV1" s="231" t="s">
+        <v>37</v>
+      </c>
+      <c r="HW1" s="232" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:231" ht="60">
       <c r="A2">
         <v>1</v>
       </c>
@@ -522,7 +1437,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="60">
+    <row r="3" spans="1:231" ht="60">
       <c r="A3">
         <v>2</v>
       </c>
@@ -539,7 +1454,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="42.75" customHeight="1">
+    <row r="4" spans="1:231" ht="42.75" customHeight="1">
       <c r="A4">
         <v>3</v>
       </c>
@@ -553,10 +1468,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="42.75" customHeight="1">
+    <row r="5" spans="1:231" ht="42.75" customHeight="1">
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:5" ht="60">
+    <row r="6" spans="1:231" ht="60">
       <c r="A6">
         <v>4</v>
       </c>
@@ -573,7 +1488,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:231">
       <c r="A7">
         <v>5</v>
       </c>
@@ -587,7 +1502,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:231">
       <c r="A8">
         <v>5</v>
       </c>
@@ -601,7 +1516,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:231">
       <c r="A9">
         <v>6</v>
       </c>
@@ -615,7 +1530,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:231">
       <c r="A10">
         <v>7</v>
       </c>
@@ -626,16 +1541,16 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:231">
       <c r="B12" s="2"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:231">
       <c r="B13" s="2"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:231">
       <c r="B15" s="2"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:231">
       <c r="B16" s="2"/>
     </row>
   </sheetData>
@@ -647,15 +1562,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" customWidth="1"/>
-    <col min="2" max="2" width="68.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="68.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1">
@@ -778,7 +1693,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
